--- a/excel_file/vendedores_pós.xlsx
+++ b/excel_file/vendedores_pós.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="WILLER" sheetId="1" state="visible" r:id="rId3"/>
@@ -469,8 +469,8 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -873,7 +873,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1538,7 +1538,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1987,15 +1987,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,10 +2023,10 @@
       <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2045,7 +2049,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2312,7 +2316,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="1:1 E5"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
